--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -35,15 +35,31 @@
   </si>
   <si>
     <t xml:space="preserve">eff_dtimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globaladmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,7 +141,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,6 +152,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -155,13 +175,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="1:1048576 1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.8"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -178,6 +203,40 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">now()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
   </si>
 </sst>
 </file>
@@ -175,17 +172,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,23 +219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">now()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service-account-mosip-resident-client</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.1"/>
@@ -212,10 +215,29 @@
       <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user_h.xlsx
@@ -178,10 +178,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.1"/>
@@ -215,8 +215,7 @@
       <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -233,8 +232,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
